--- a/forecast_summary_B0BZ54DR5L.xlsx
+++ b/forecast_summary_B0BZ54DR5L.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>9.119304244119588</v>
       </c>
       <c r="D2" t="n">
-        <v>27.36301944651295</v>
+        <v>27.65394325642969</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>5.40046260619152</v>
       </c>
       <c r="D3" t="n">
-        <v>25.92046414686166</v>
+        <v>23.32187085780193</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>2.968749252878229</v>
       </c>
       <c r="D4" t="n">
-        <v>21.53016647841481</v>
+        <v>20.50172186810793</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1.285280067927418</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0706704449956</v>
+        <v>18.95305928741943</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>-0.0505651321720969</v>
       </c>
       <c r="D6" t="n">
-        <v>18.78448002574434</v>
+        <v>18.98923300587774</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-1.190527503030529</v>
       </c>
       <c r="D7" t="n">
-        <v>17.0277743079158</v>
+        <v>16.89976729262766</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-2.22938891264423</v>
       </c>
       <c r="D8" t="n">
-        <v>15.92594759057942</v>
+        <v>15.12236455773784</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-3.214007564743032</v>
       </c>
       <c r="D9" t="n">
-        <v>15.38293121096191</v>
+        <v>14.09090555992127</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>-4.217518866066339</v>
       </c>
       <c r="D10" t="n">
-        <v>15.30580224431144</v>
+        <v>13.90124216643573</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>-5.512668207123711</v>
       </c>
       <c r="D11" t="n">
-        <v>11.58978694203981</v>
+        <v>14.32994053171148</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-7.379149802933874</v>
       </c>
       <c r="D12" t="n">
-        <v>10.97092939313816</v>
+        <v>11.52054747860972</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-9.585140350792724</v>
       </c>
       <c r="D13" t="n">
-        <v>8.778786952566335</v>
+        <v>8.500468772892347</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-11.38858747710505</v>
       </c>
       <c r="D14" t="n">
-        <v>7.842092542960923</v>
+        <v>8.07982900102404</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-12.3512546798091</v>
       </c>
       <c r="D15" t="n">
-        <v>5.723771085984379</v>
+        <v>5.40935688648717</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-12.84480593499894</v>
       </c>
       <c r="D16" t="n">
-        <v>4.913955541197417</v>
+        <v>4.841889461993663</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-13.25161766861144</v>
       </c>
       <c r="D17" t="n">
-        <v>5.224864172311865</v>
+        <v>4.981287083340657</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-12.92224880225223</v>
       </c>
       <c r="D18" t="n">
-        <v>6.037140598982847</v>
+        <v>6.16464913995865</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-10.91479090806913</v>
       </c>
       <c r="D19" t="n">
-        <v>7.637753342307728</v>
+        <v>6.745719427631431</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-8.18909938201544</v>
       </c>
       <c r="D20" t="n">
-        <v>11.24728853399602</v>
+        <v>9.694693525341119</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-8.028433140156521</v>
       </c>
       <c r="D21" t="n">
-        <v>9.693930376405863</v>
+        <v>10.77021641017945</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
